--- a/output/estat-desc.xlsx
+++ b/output/estat-desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1090,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B14">
@@ -1098,53 +1098,53 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D14">
-        <v>11926</v>
+        <v>2.175125067527062E-05</v>
       </c>
       <c r="E14">
-        <v>11926</v>
+        <v>0.0001023867517258437</v>
       </c>
       <c r="F14">
-        <v>11926</v>
+        <v>2.94574717118082E-127</v>
       </c>
       <c r="G14">
-        <v>11926</v>
+        <v>2.018899192295169E-06</v>
       </c>
       <c r="H14">
-        <v>11926</v>
+        <v>1.231819906436174E-05</v>
       </c>
       <c r="I14">
-        <v>11926</v>
+        <v>2.172230516570348E-28</v>
       </c>
       <c r="J14">
-        <v>11926</v>
+        <v>3.018942741614563E-07</v>
       </c>
       <c r="K14">
-        <v>11926</v>
+        <v>3.559064184832121E-05</v>
       </c>
       <c r="L14">
-        <v>11926</v>
+        <v>2.288283733418591E-13</v>
       </c>
       <c r="M14">
-        <v>11926</v>
+        <v>1.486026805631738E-05</v>
       </c>
       <c r="N14">
-        <v>11926</v>
+        <v>5.17428850667079E-05</v>
       </c>
       <c r="O14">
-        <v>11926</v>
+        <v>0.1348066270549246</v>
       </c>
       <c r="P14">
-        <v>11926</v>
+        <v>8.110736823623348E-21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>log_norm</t>
         </is>
       </c>
       <c r="B15">
@@ -1152,53 +1152,53 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D15">
-        <v>30.36</v>
+        <v>2.733432181074702E-06</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0.01153315223895822</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>4.039473340474221E-19</v>
       </c>
       <c r="G15">
-        <v>3.1</v>
+        <v>0.0002530115150777753</v>
       </c>
       <c r="H15">
-        <v>19.99091822</v>
+        <v>0.1753033153957926</v>
       </c>
       <c r="I15">
-        <v>1.55922</v>
+        <v>0.004350962748017525</v>
       </c>
       <c r="J15">
-        <v>6.222209651</v>
+        <v>0.03817720542502946</v>
       </c>
       <c r="K15">
-        <v>11.78360734</v>
+        <v>1.129984840553548E-16</v>
       </c>
       <c r="L15">
-        <v>0.002033439</v>
+        <v>0.1868499680246174</v>
       </c>
       <c r="M15">
-        <v>0.539857765</v>
+        <v>0.01016871106924187</v>
       </c>
       <c r="N15">
-        <v>4.524</v>
+        <v>0.5704365679264578</v>
       </c>
       <c r="O15">
-        <v>3.83</v>
+        <v>0.01537585260989382</v>
       </c>
       <c r="P15">
-        <v>0.7917999999999999</v>
+        <v>0.0493568013767983</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B16">
@@ -1210,49 +1210,49 @@
         </is>
       </c>
       <c r="D16">
-        <v>74.53</v>
+        <v>11926</v>
       </c>
       <c r="E16">
-        <v>12.0671026975</v>
+        <v>11926</v>
       </c>
       <c r="F16">
-        <v>1.144208759</v>
+        <v>11926</v>
       </c>
       <c r="G16">
-        <v>18.7757526</v>
+        <v>11926</v>
       </c>
       <c r="H16">
-        <v>36.49095371750001</v>
+        <v>11926</v>
       </c>
       <c r="I16">
-        <v>6.1723</v>
+        <v>11926</v>
       </c>
       <c r="J16">
-        <v>14.35595865</v>
+        <v>11926</v>
       </c>
       <c r="K16">
-        <v>50.14653398</v>
+        <v>11926</v>
       </c>
       <c r="L16">
-        <v>0.70953893775</v>
+        <v>11926</v>
       </c>
       <c r="M16">
-        <v>5.10732091925</v>
+        <v>11926</v>
       </c>
       <c r="N16">
-        <v>9.440950000000001</v>
+        <v>11926</v>
       </c>
       <c r="O16">
-        <v>4.89</v>
+        <v>11926</v>
       </c>
       <c r="P16">
-        <v>5.52924</v>
+        <v>11926</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B17">
@@ -1264,49 +1264,49 @@
         </is>
       </c>
       <c r="D17">
-        <v>93.81999999999999</v>
+        <v>30.36</v>
       </c>
       <c r="E17">
-        <v>15.99295775</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>3.129875457</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>24.87345535</v>
+        <v>3.1</v>
       </c>
       <c r="H17">
-        <v>42.42691396</v>
+        <v>19.99091822</v>
       </c>
       <c r="I17">
-        <v>8.018090000000001</v>
+        <v>1.55922</v>
       </c>
       <c r="J17">
-        <v>16.91964026</v>
+        <v>6.222209651</v>
       </c>
       <c r="K17">
-        <v>59.67422162</v>
+        <v>11.78360734</v>
       </c>
       <c r="L17">
-        <v>1.203147877</v>
+        <v>0.002033439</v>
       </c>
       <c r="M17">
-        <v>7.03523511</v>
+        <v>0.539857765</v>
       </c>
       <c r="N17">
-        <v>11.14077</v>
+        <v>4.524</v>
       </c>
       <c r="O17">
-        <v>5.23</v>
+        <v>3.83</v>
       </c>
       <c r="P17">
-        <v>8.064019999999999</v>
+        <v>0.7917999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B18">
@@ -1318,49 +1318,49 @@
         </is>
       </c>
       <c r="D18">
-        <v>96.9419528760691</v>
+        <v>74.53</v>
       </c>
       <c r="E18">
-        <v>16.9581038595846</v>
+        <v>12.0671026975</v>
       </c>
       <c r="F18">
-        <v>7.376832650938622</v>
+        <v>1.144208759</v>
       </c>
       <c r="G18">
-        <v>26.22727783207966</v>
+        <v>18.7757526</v>
       </c>
       <c r="H18">
-        <v>44.10337882807647</v>
+        <v>36.49095371750001</v>
       </c>
       <c r="I18">
-        <v>8.961502376552071</v>
+        <v>6.1723</v>
       </c>
       <c r="J18">
-        <v>17.87734641797384</v>
+        <v>14.35595865</v>
       </c>
       <c r="K18">
-        <v>58.03929426112108</v>
+        <v>50.14653398</v>
       </c>
       <c r="L18">
-        <v>1.817076930654704</v>
+        <v>0.70953893775</v>
       </c>
       <c r="M18">
-        <v>7.455181569803957</v>
+        <v>5.10732091925</v>
       </c>
       <c r="N18">
-        <v>11.38558355700822</v>
+        <v>9.440950000000001</v>
       </c>
       <c r="O18">
-        <v>5.248010229750125</v>
+        <v>4.89</v>
       </c>
       <c r="P18">
-        <v>10.06350926198558</v>
+        <v>5.52924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B19">
@@ -1372,49 +1372,49 @@
         </is>
       </c>
       <c r="D19">
-        <v>116.55</v>
+        <v>93.81999999999999</v>
       </c>
       <c r="E19">
-        <v>20.34090909</v>
+        <v>15.99295775</v>
       </c>
       <c r="F19">
-        <v>8.792965934</v>
+        <v>3.129875457</v>
       </c>
       <c r="G19">
-        <v>31.71636867</v>
+        <v>24.87345535</v>
       </c>
       <c r="H19">
-        <v>49.44006115</v>
+        <v>42.42691396</v>
       </c>
       <c r="I19">
-        <v>10.28332</v>
+        <v>8.018090000000001</v>
       </c>
       <c r="J19">
-        <v>20.2350266</v>
+        <v>16.91964026</v>
       </c>
       <c r="K19">
-        <v>67.29924301</v>
+        <v>59.67422162</v>
       </c>
       <c r="L19">
-        <v>2.163790004</v>
+        <v>1.203147877</v>
       </c>
       <c r="M19">
-        <v>9.179976418000001</v>
+        <v>7.03523511</v>
       </c>
       <c r="N19">
-        <v>12.9748</v>
+        <v>11.14077</v>
       </c>
       <c r="O19">
-        <v>5.59</v>
+        <v>5.23</v>
       </c>
       <c r="P19">
-        <v>12.33824</v>
+        <v>8.064019999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="B20">
@@ -1426,49 +1426,49 @@
         </is>
       </c>
       <c r="D20">
-        <v>188.38</v>
+        <v>96.9419528760691</v>
       </c>
       <c r="E20">
-        <v>103.9106796</v>
+        <v>16.9581038595846</v>
       </c>
       <c r="F20">
-        <v>78.14049887</v>
+        <v>7.376832650938622</v>
       </c>
       <c r="G20">
-        <v>120.1560435</v>
+        <v>26.22727783207966</v>
       </c>
       <c r="H20">
-        <v>153.8060046</v>
+        <v>44.10337882807647</v>
       </c>
       <c r="I20">
-        <v>136.37568</v>
+        <v>8.961502376552071</v>
       </c>
       <c r="J20">
-        <v>118.3770765</v>
+        <v>17.87734641797384</v>
       </c>
       <c r="K20">
-        <v>94.03621440000001</v>
+        <v>58.03929426112108</v>
       </c>
       <c r="L20">
-        <v>15.73107633</v>
+        <v>1.817076930654704</v>
       </c>
       <c r="M20">
-        <v>57.91673747</v>
+        <v>7.455181569803957</v>
       </c>
       <c r="N20">
-        <v>27.0162</v>
+        <v>11.38558355700822</v>
       </c>
       <c r="O20">
-        <v>6.94</v>
+        <v>5.248010229750125</v>
       </c>
       <c r="P20">
-        <v>128.589144</v>
+        <v>10.06350926198558</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DP</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B21">
@@ -1480,49 +1480,49 @@
         </is>
       </c>
       <c r="D21">
-        <v>28.86410401310694</v>
+        <v>116.55</v>
       </c>
       <c r="E21">
-        <v>7.535935540145377</v>
+        <v>20.34090909</v>
       </c>
       <c r="F21">
-        <v>10.45921042280794</v>
+        <v>8.792965934</v>
       </c>
       <c r="G21">
-        <v>10.92826727600494</v>
+        <v>31.71636867</v>
       </c>
       <c r="H21">
-        <v>11.58526571222665</v>
+        <v>49.44006115</v>
       </c>
       <c r="I21">
-        <v>5.576436722931922</v>
+        <v>10.28332</v>
       </c>
       <c r="J21">
-        <v>5.874896698634327</v>
+        <v>20.2350266</v>
       </c>
       <c r="K21">
-        <v>12.58074496375761</v>
+        <v>67.29924301</v>
       </c>
       <c r="L21">
-        <v>1.887056377958371</v>
+        <v>2.163790004</v>
       </c>
       <c r="M21">
-        <v>3.316854848574791</v>
+        <v>9.179976418000001</v>
       </c>
       <c r="N21">
-        <v>2.738196984407002</v>
+        <v>12.9748</v>
       </c>
       <c r="O21">
-        <v>0.5002606015000214</v>
+        <v>5.59</v>
       </c>
       <c r="P21">
-        <v>7.214370445421634</v>
+        <v>12.33824</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B22">
@@ -1534,49 +1534,49 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.2643082251340431</v>
+        <v>188.38</v>
       </c>
       <c r="E22">
-        <v>0.06900646375289934</v>
+        <v>103.9106796</v>
       </c>
       <c r="F22">
-        <v>0.0957748538427015</v>
+        <v>78.14049887</v>
       </c>
       <c r="G22">
-        <v>0.1000700013483771</v>
+        <v>120.1560435</v>
       </c>
       <c r="H22">
-        <v>0.1060861274860445</v>
+        <v>153.8060046</v>
       </c>
       <c r="I22">
-        <v>0.05106335856263376</v>
+        <v>136.37568</v>
       </c>
       <c r="J22">
-        <v>0.05379635267932732</v>
+        <v>118.3770765</v>
       </c>
       <c r="K22">
-        <v>0.1152017180483026</v>
+        <v>94.03621440000001</v>
       </c>
       <c r="L22">
-        <v>0.01727975071596084</v>
+        <v>15.73107633</v>
       </c>
       <c r="M22">
-        <v>0.03037239672002148</v>
+        <v>57.91673747</v>
       </c>
       <c r="N22">
-        <v>0.02507363418200561</v>
+        <v>27.0162</v>
       </c>
       <c r="O22">
-        <v>0.004580879823150517</v>
+        <v>6.94</v>
       </c>
       <c r="P22">
-        <v>0.06606189636175848</v>
+        <v>128.589144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CV</t>
+          <t>DP</t>
         </is>
       </c>
       <c r="B23">
@@ -1588,49 +1588,49 @@
         </is>
       </c>
       <c r="D23">
-        <v>29.77462611054154</v>
+        <v>28.86410401310694</v>
       </c>
       <c r="E23">
-        <v>44.43855045672525</v>
+        <v>7.535935540145377</v>
       </c>
       <c r="F23">
-        <v>141.7845695805112</v>
+        <v>10.45921042280794</v>
       </c>
       <c r="G23">
-        <v>41.66756209307444</v>
+        <v>10.92826727600494</v>
       </c>
       <c r="H23">
-        <v>26.26843117255996</v>
+        <v>11.58526571222665</v>
       </c>
       <c r="I23">
-        <v>62.22658309529402</v>
+        <v>5.576436722931922</v>
       </c>
       <c r="J23">
-        <v>32.86224119217</v>
+        <v>5.874896698634327</v>
       </c>
       <c r="K23">
-        <v>21.67625420660069</v>
+        <v>12.58074496375761</v>
       </c>
       <c r="L23">
-        <v>103.8512099363043</v>
+        <v>1.887056377958371</v>
       </c>
       <c r="M23">
-        <v>44.4905978146688</v>
+        <v>3.316854848574791</v>
       </c>
       <c r="N23">
-        <v>24.04968503104566</v>
+        <v>2.738196984407002</v>
       </c>
       <c r="O23">
-        <v>9.532386173032297</v>
+        <v>0.5002606015000214</v>
       </c>
       <c r="P23">
-        <v>71.68841661102825</v>
+        <v>7.214370445421634</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Skn</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="B24">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.3192125197531496</v>
+        <v>0.2643082251340431</v>
       </c>
       <c r="E24">
-        <v>2.107894681099003</v>
+        <v>0.06900646375289934</v>
       </c>
       <c r="F24">
-        <v>2.468667261630045</v>
+        <v>0.0957748538427015</v>
       </c>
       <c r="G24">
-        <v>1.558530643567566</v>
+        <v>0.1000700013483771</v>
       </c>
       <c r="H24">
-        <v>2.02917621665435</v>
+        <v>0.1060861274860445</v>
       </c>
       <c r="I24">
-        <v>7.200059112718668</v>
+        <v>0.05106335856263376</v>
       </c>
       <c r="J24">
-        <v>4.416106183166161</v>
+        <v>0.05379635267932732</v>
       </c>
       <c r="K24">
-        <v>-0.5806225196770235</v>
+        <v>0.1152017180483026</v>
       </c>
       <c r="L24">
-        <v>2.856210173110772</v>
+        <v>0.01727975071596084</v>
       </c>
       <c r="M24">
-        <v>1.557324706753886</v>
+        <v>0.03037239672002148</v>
       </c>
       <c r="N24">
-        <v>0.7461769945738405</v>
+        <v>0.02507363418200561</v>
       </c>
       <c r="O24">
-        <v>0.09122487980102884</v>
+        <v>0.004580879823150517</v>
       </c>
       <c r="P24">
-        <v>3.246816881176764</v>
+        <v>0.06606189636175848</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Krt</t>
+          <t>CV</t>
         </is>
       </c>
       <c r="B25">
@@ -1696,265 +1696,265 @@
         </is>
       </c>
       <c r="D25">
-        <v>-0.4892963820153797</v>
+        <v>29.77462611054154</v>
       </c>
       <c r="E25">
-        <v>11.26953822594995</v>
+        <v>44.43855045672525</v>
       </c>
       <c r="F25">
-        <v>6.945912385877019</v>
+        <v>141.7845695805112</v>
       </c>
       <c r="G25">
-        <v>6.322969076373587</v>
+        <v>41.66756209307444</v>
       </c>
       <c r="H25">
-        <v>10.0064222766408</v>
+        <v>26.26843117255996</v>
       </c>
       <c r="I25">
-        <v>114.0776864559387</v>
+        <v>62.22658309529402</v>
       </c>
       <c r="J25">
-        <v>52.12794660923395</v>
+        <v>32.86224119217</v>
       </c>
       <c r="K25">
-        <v>0.06922789768937276</v>
+        <v>21.67625420660069</v>
       </c>
       <c r="L25">
-        <v>11.18350678358889</v>
+        <v>103.8512099363043</v>
       </c>
       <c r="M25">
-        <v>10.98286784628299</v>
+        <v>44.4905978146688</v>
       </c>
       <c r="N25">
-        <v>1.337010893290016</v>
+        <v>24.04968503104566</v>
       </c>
       <c r="O25">
-        <v>-0.3468497851579109</v>
+        <v>9.532386173032297</v>
       </c>
       <c r="P25">
-        <v>22.38434556683376</v>
+        <v>71.68841661102825</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Skn</t>
         </is>
       </c>
       <c r="B26">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D26">
-        <v>4447</v>
+        <v>0.3192125197531496</v>
       </c>
       <c r="E26">
-        <v>4447</v>
+        <v>2.107894681099003</v>
       </c>
       <c r="F26">
-        <v>4447</v>
+        <v>2.468667261630045</v>
       </c>
       <c r="G26">
-        <v>4447</v>
+        <v>1.558530643567566</v>
       </c>
       <c r="H26">
-        <v>4447</v>
+        <v>2.02917621665435</v>
       </c>
       <c r="I26">
-        <v>4447</v>
+        <v>7.200059112718668</v>
       </c>
       <c r="J26">
-        <v>4447</v>
+        <v>4.416106183166161</v>
       </c>
       <c r="K26">
-        <v>4447</v>
+        <v>-0.5806225196770235</v>
       </c>
       <c r="L26">
-        <v>4447</v>
+        <v>2.856210173110772</v>
       </c>
       <c r="M26">
-        <v>4447</v>
+        <v>1.557324706753886</v>
       </c>
       <c r="N26">
-        <v>4447</v>
+        <v>0.7461769945738405</v>
       </c>
       <c r="O26">
-        <v>4447</v>
+        <v>0.09122487980102884</v>
       </c>
       <c r="P26">
-        <v>4447</v>
+        <v>3.246816881176764</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Krt</t>
         </is>
       </c>
       <c r="B27">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D27">
-        <v>30.5</v>
+        <v>-0.4892963820153797</v>
       </c>
       <c r="E27">
-        <v>2.491803279</v>
+        <v>11.26953822594995</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>6.945912385877019</v>
       </c>
       <c r="G27">
-        <v>4.840467523</v>
+        <v>6.322969076373587</v>
       </c>
       <c r="H27">
-        <v>15.45257167</v>
+        <v>10.0064222766408</v>
       </c>
       <c r="I27">
-        <v>0.55772</v>
+        <v>114.0776864559387</v>
       </c>
       <c r="J27">
-        <v>5.48361795</v>
+        <v>52.12794660923395</v>
       </c>
       <c r="K27">
-        <v>13.28960683</v>
+        <v>0.06922789768937276</v>
       </c>
       <c r="L27">
-        <v>0.061867267</v>
+        <v>11.18350678358889</v>
       </c>
       <c r="M27">
-        <v>0.586849315</v>
+        <v>10.98286784628299</v>
       </c>
       <c r="N27">
-        <v>3.5414</v>
+        <v>1.337010893290016</v>
       </c>
       <c r="O27">
-        <v>3.61</v>
+        <v>-0.3468497851579109</v>
       </c>
       <c r="P27">
-        <v>0.73183</v>
+        <v>22.38434556683376</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B28">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D28">
-        <v>60.12</v>
+        <v>0.0001253951527867442</v>
       </c>
       <c r="E28">
-        <v>14.84391704</v>
+        <v>7.325178185298197E-05</v>
       </c>
       <c r="F28">
-        <v>0.2655346645</v>
+        <v>1.624177290660182E-79</v>
       </c>
       <c r="G28">
-        <v>22.621849485</v>
+        <v>1.144061277295893E-05</v>
       </c>
       <c r="H28">
-        <v>39.69594098</v>
+        <v>4.366501938523301E-08</v>
       </c>
       <c r="I28">
-        <v>6.92772</v>
+        <v>9.672474556185454E-18</v>
       </c>
       <c r="J28">
-        <v>12.59922234</v>
+        <v>1.689997590731012E-28</v>
       </c>
       <c r="K28">
-        <v>56.937828745</v>
+        <v>8.511564386591767E-08</v>
       </c>
       <c r="L28">
-        <v>1.085524494</v>
+        <v>2.497448913470172E-43</v>
       </c>
       <c r="M28">
-        <v>5.7575631455</v>
+        <v>6.97459049794049E-10</v>
       </c>
       <c r="N28">
-        <v>9.289200000000001</v>
+        <v>4.302563619621062E-05</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>0.01102358784240185</v>
       </c>
       <c r="P28">
-        <v>4.85643</v>
+        <v>5.172408963102356E-28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>log_norm</t>
         </is>
       </c>
       <c r="B29">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D29">
-        <v>83.09</v>
+        <v>0.0009061561632760605</v>
       </c>
       <c r="E29">
-        <v>20.34285714</v>
+        <v>1.154062828826441E-06</v>
       </c>
       <c r="F29">
-        <v>1.104365863</v>
+        <v>2.285723697183008E-07</v>
       </c>
       <c r="G29">
-        <v>31.32766151</v>
+        <v>4.06479534660379E-08</v>
       </c>
       <c r="H29">
-        <v>47.34824618</v>
+        <v>0.0705697349272732</v>
       </c>
       <c r="I29">
-        <v>10.30026</v>
+        <v>0.001842540479397187</v>
       </c>
       <c r="J29">
-        <v>15.29728089</v>
+        <v>0.0002327621394622558</v>
       </c>
       <c r="K29">
-        <v>67.36286260999999</v>
+        <v>1.493923427225125E-23</v>
       </c>
       <c r="L29">
-        <v>1.805427252</v>
+        <v>2.529885739335968E-06</v>
       </c>
       <c r="M29">
-        <v>8.199105145000001</v>
+        <v>0.002214285324131057</v>
       </c>
       <c r="N29">
-        <v>10.901</v>
+        <v>0.4971099931659468</v>
       </c>
       <c r="O29">
-        <v>5.41</v>
+        <v>0.001120679683757005</v>
       </c>
       <c r="P29">
-        <v>6.751556</v>
+        <v>0.03016124904174557</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B30">
@@ -1966,49 +1966,49 @@
         </is>
       </c>
       <c r="D30">
-        <v>86.81691927141894</v>
+        <v>4447</v>
       </c>
       <c r="E30">
-        <v>22.22419460976074</v>
+        <v>4447</v>
       </c>
       <c r="F30">
-        <v>4.830679657037553</v>
+        <v>4447</v>
       </c>
       <c r="G30">
-        <v>33.55330969445087</v>
+        <v>4447</v>
       </c>
       <c r="H30">
-        <v>49.7587651312233</v>
+        <v>4447</v>
       </c>
       <c r="I30">
-        <v>13.26965924218574</v>
+        <v>4447</v>
       </c>
       <c r="J30">
-        <v>16.20516310526287</v>
+        <v>4447</v>
       </c>
       <c r="K30">
-        <v>65.14188558846638</v>
+        <v>4447</v>
       </c>
       <c r="L30">
-        <v>2.370419893629413</v>
+        <v>4447</v>
       </c>
       <c r="M30">
-        <v>8.958363050513604</v>
+        <v>4447</v>
       </c>
       <c r="N30">
-        <v>11.19270206881043</v>
+        <v>4447</v>
       </c>
       <c r="O30">
-        <v>5.388039127501687</v>
+        <v>4447</v>
       </c>
       <c r="P30">
-        <v>8.60099741780976</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B31">
@@ -2020,49 +2020,49 @@
         </is>
       </c>
       <c r="D31">
-        <v>110.96</v>
+        <v>30.5</v>
       </c>
       <c r="E31">
-        <v>27.498511345</v>
+        <v>2.491803279</v>
       </c>
       <c r="F31">
-        <v>4.1838181945</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>41.332663505</v>
+        <v>4.840467523</v>
       </c>
       <c r="H31">
-        <v>56.74663388</v>
+        <v>15.45257167</v>
       </c>
       <c r="I31">
-        <v>16.11358</v>
+        <v>0.55772</v>
       </c>
       <c r="J31">
-        <v>18.557247415</v>
+        <v>5.48361795</v>
       </c>
       <c r="K31">
-        <v>75.21518423000001</v>
+        <v>13.28960683</v>
       </c>
       <c r="L31">
-        <v>3.072145783</v>
+        <v>0.061867267</v>
       </c>
       <c r="M31">
-        <v>11.07872929</v>
+        <v>0.586849315</v>
       </c>
       <c r="N31">
-        <v>12.727</v>
+        <v>3.5414</v>
       </c>
       <c r="O31">
-        <v>5.78</v>
+        <v>3.61</v>
       </c>
       <c r="P31">
-        <v>10.098815</v>
+        <v>0.73183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B32">
@@ -2074,49 +2074,49 @@
         </is>
       </c>
       <c r="D32">
-        <v>196.82</v>
+        <v>60.12</v>
       </c>
       <c r="E32">
-        <v>125.6891334</v>
+        <v>14.84391704</v>
       </c>
       <c r="F32">
-        <v>77.73112159</v>
+        <v>0.2655346645</v>
       </c>
       <c r="G32">
-        <v>143.3272228</v>
+        <v>22.621849485</v>
       </c>
       <c r="H32">
-        <v>158.0822683</v>
+        <v>39.69594098</v>
       </c>
       <c r="I32">
-        <v>152.40234</v>
+        <v>6.92772</v>
       </c>
       <c r="J32">
-        <v>129.1229554</v>
+        <v>12.59922234</v>
       </c>
       <c r="K32">
-        <v>95.58206659</v>
+        <v>56.937828745</v>
       </c>
       <c r="L32">
-        <v>15.78824748</v>
+        <v>1.085524494</v>
       </c>
       <c r="M32">
-        <v>35.96855096</v>
+        <v>5.7575631455</v>
       </c>
       <c r="N32">
-        <v>45.0804</v>
+        <v>9.289200000000001</v>
       </c>
       <c r="O32">
-        <v>6.99</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>134.20211</v>
+        <v>4.85643</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DP</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B33">
@@ -2128,49 +2128,49 @@
         </is>
       </c>
       <c r="D33">
-        <v>32.54300865162008</v>
+        <v>83.09</v>
       </c>
       <c r="E33">
-        <v>11.14237025204003</v>
+        <v>20.34285714</v>
       </c>
       <c r="F33">
-        <v>9.348536296982594</v>
+        <v>1.104365863</v>
       </c>
       <c r="G33">
-        <v>15.2259226868853</v>
+        <v>31.32766151</v>
       </c>
       <c r="H33">
-        <v>14.47014174961495</v>
+        <v>47.34824618</v>
       </c>
       <c r="I33">
-        <v>10.64759303484435</v>
+        <v>10.30026</v>
       </c>
       <c r="J33">
-        <v>5.60714305177014</v>
+        <v>15.29728089</v>
       </c>
       <c r="K33">
-        <v>13.49988379576232</v>
+        <v>67.36286260999999</v>
       </c>
       <c r="L33">
-        <v>1.876522731150587</v>
+        <v>1.805427252</v>
       </c>
       <c r="M33">
-        <v>4.333787489150833</v>
+        <v>8.199105145000001</v>
       </c>
       <c r="N33">
-        <v>2.95316605794657</v>
+        <v>10.901</v>
       </c>
       <c r="O33">
-        <v>0.5715263755321212</v>
+        <v>5.41</v>
       </c>
       <c r="P33">
-        <v>6.862247202060332</v>
+        <v>6.751556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="B34">
@@ -2182,49 +2182,49 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.4880048485428742</v>
+        <v>86.81691927141894</v>
       </c>
       <c r="E34">
-        <v>0.1670875230211614</v>
+        <v>22.22419460976074</v>
       </c>
       <c r="F34">
-        <v>0.140187746269718</v>
+        <v>4.830679657037553</v>
       </c>
       <c r="G34">
-        <v>0.2283232068147784</v>
+        <v>33.55330969445087</v>
       </c>
       <c r="H34">
-        <v>0.2169897506561128</v>
+        <v>49.7587651312233</v>
       </c>
       <c r="I34">
-        <v>0.1596679975702463</v>
+        <v>13.26965924218574</v>
       </c>
       <c r="J34">
-        <v>0.08408297539511903</v>
+        <v>16.20516310526287</v>
       </c>
       <c r="K34">
-        <v>0.2024400637821611</v>
+        <v>65.14188558846638</v>
       </c>
       <c r="L34">
-        <v>0.0281397519512018</v>
+        <v>2.370419893629413</v>
       </c>
       <c r="M34">
-        <v>0.06498813093468447</v>
+        <v>8.958363050513604</v>
       </c>
       <c r="N34">
-        <v>0.04428476083014003</v>
+        <v>11.19270206881043</v>
       </c>
       <c r="O34">
-        <v>0.00857043198788339</v>
+        <v>5.388039127501687</v>
       </c>
       <c r="P34">
-        <v>0.1029041273459054</v>
+        <v>8.60099741780976</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CV</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B35">
@@ -2236,49 +2236,49 @@
         </is>
       </c>
       <c r="D35">
-        <v>37.48463885234129</v>
+        <v>110.96</v>
       </c>
       <c r="E35">
-        <v>50.13621617201988</v>
+        <v>27.498511345</v>
       </c>
       <c r="F35">
-        <v>193.5242442202356</v>
+        <v>4.1838181945</v>
       </c>
       <c r="G35">
-        <v>45.37830343873172</v>
+        <v>41.332663505</v>
       </c>
       <c r="H35">
-        <v>29.08058853843024</v>
+        <v>56.74663388</v>
       </c>
       <c r="I35">
-        <v>80.24013910616824</v>
+        <v>16.11358</v>
       </c>
       <c r="J35">
-        <v>34.60096646573792</v>
+        <v>18.557247415</v>
       </c>
       <c r="K35">
-        <v>20.72381490619996</v>
+        <v>75.21518423000001</v>
       </c>
       <c r="L35">
-        <v>79.16414877354886</v>
+        <v>3.072145783</v>
       </c>
       <c r="M35">
-        <v>48.37700219017543</v>
+        <v>11.07872929</v>
       </c>
       <c r="N35">
-        <v>26.38474641593345</v>
+        <v>12.727</v>
       </c>
       <c r="O35">
-        <v>10.60731672520584</v>
+        <v>5.78</v>
       </c>
       <c r="P35">
-        <v>79.78431882622051</v>
+        <v>10.098815</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Skn</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B36">
@@ -2290,49 +2290,49 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.4071607474923072</v>
+        <v>196.82</v>
       </c>
       <c r="E36">
-        <v>1.88378500877487</v>
+        <v>125.6891334</v>
       </c>
       <c r="F36">
-        <v>3.188207023643321</v>
+        <v>77.73112159</v>
       </c>
       <c r="G36">
-        <v>1.393201057574375</v>
+        <v>143.3272228</v>
       </c>
       <c r="H36">
-        <v>1.555589401636817</v>
+        <v>158.0822683</v>
       </c>
       <c r="I36">
-        <v>3.279395585164672</v>
+        <v>152.40234</v>
       </c>
       <c r="J36">
-        <v>3.864676521503712</v>
+        <v>129.1229554</v>
       </c>
       <c r="K36">
-        <v>-0.6414782306773201</v>
+        <v>95.58206659</v>
       </c>
       <c r="L36">
-        <v>2.064862424691188</v>
+        <v>15.78824748</v>
       </c>
       <c r="M36">
-        <v>1.368795158293313</v>
+        <v>35.96855096</v>
       </c>
       <c r="N36">
-        <v>1.620617202447554</v>
+        <v>45.0804</v>
       </c>
       <c r="O36">
-        <v>-0.01103800601217965</v>
+        <v>6.99</v>
       </c>
       <c r="P36">
-        <v>4.95510254742786</v>
+        <v>134.20211</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Krt</t>
+          <t>DP</t>
         </is>
       </c>
       <c r="B37">
@@ -2344,49 +2344,49 @@
         </is>
       </c>
       <c r="D37">
-        <v>-0.613263447233948</v>
+        <v>32.54300865162008</v>
       </c>
       <c r="E37">
-        <v>8.648321532755514</v>
+        <v>11.14237025204003</v>
       </c>
       <c r="F37">
-        <v>11.82697372071716</v>
+        <v>9.348536296982594</v>
       </c>
       <c r="G37">
-        <v>4.23073563480237</v>
+        <v>15.2259226868853</v>
       </c>
       <c r="H37">
-        <v>5.181999939447821</v>
+        <v>14.47014174961495</v>
       </c>
       <c r="I37">
-        <v>20.31445369367491</v>
+        <v>10.64759303484435</v>
       </c>
       <c r="J37">
-        <v>49.22859501327883</v>
+        <v>5.60714305177014</v>
       </c>
       <c r="K37">
-        <v>-0.02853902266674258</v>
+        <v>13.49988379576232</v>
       </c>
       <c r="L37">
-        <v>6.353272353683381</v>
+        <v>1.876522731150587</v>
       </c>
       <c r="M37">
-        <v>3.287919655953605</v>
+        <v>4.333787489150833</v>
       </c>
       <c r="N37">
-        <v>11.09946257603131</v>
+        <v>2.95316605794657</v>
       </c>
       <c r="O37">
-        <v>-0.3442729443225785</v>
+        <v>0.5715263755321212</v>
       </c>
       <c r="P37">
-        <v>52.81085205801283</v>
+        <v>6.862247202060332</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="B38">
@@ -2394,53 +2394,53 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D38">
-        <v>6670</v>
+        <v>0.4880048485428742</v>
       </c>
       <c r="E38">
-        <v>6670</v>
+        <v>0.1670875230211614</v>
       </c>
       <c r="F38">
-        <v>6670</v>
+        <v>0.140187746269718</v>
       </c>
       <c r="G38">
-        <v>6670</v>
+        <v>0.2283232068147784</v>
       </c>
       <c r="H38">
-        <v>6670</v>
+        <v>0.2169897506561128</v>
       </c>
       <c r="I38">
-        <v>6670</v>
+        <v>0.1596679975702463</v>
       </c>
       <c r="J38">
-        <v>6670</v>
+        <v>0.08408297539511903</v>
       </c>
       <c r="K38">
-        <v>6670</v>
+        <v>0.2024400637821611</v>
       </c>
       <c r="L38">
-        <v>6670</v>
+        <v>0.0281397519512018</v>
       </c>
       <c r="M38">
-        <v>6670</v>
+        <v>0.06498813093468447</v>
       </c>
       <c r="N38">
-        <v>6670</v>
+        <v>0.04428476083014003</v>
       </c>
       <c r="O38">
-        <v>6670</v>
+        <v>0.00857043198788339</v>
       </c>
       <c r="P38">
-        <v>6670</v>
+        <v>0.1029041273459054</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>CV</t>
         </is>
       </c>
       <c r="B39">
@@ -2448,53 +2448,53 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D39">
-        <v>31.33</v>
+        <v>37.48463885234129</v>
       </c>
       <c r="E39">
-        <v>1.590526316</v>
+        <v>50.13621617201988</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>193.5242442202356</v>
       </c>
       <c r="G39">
-        <v>3.035173591</v>
+        <v>45.37830343873172</v>
       </c>
       <c r="H39">
-        <v>16.67872022</v>
+        <v>29.08058853843024</v>
       </c>
       <c r="I39">
-        <v>0.51483</v>
+        <v>80.24013910616824</v>
       </c>
       <c r="J39">
-        <v>5.557148367</v>
+        <v>34.60096646573792</v>
       </c>
       <c r="K39">
-        <v>9.399813067</v>
+        <v>20.72381490619996</v>
       </c>
       <c r="L39">
-        <v>0.004682622</v>
+        <v>79.16414877354886</v>
       </c>
       <c r="M39">
-        <v>0.407673861</v>
+        <v>48.37700219017543</v>
       </c>
       <c r="N39">
-        <v>4.3742</v>
+        <v>26.38474641593345</v>
       </c>
       <c r="O39">
-        <v>3.69</v>
+        <v>10.60731672520584</v>
       </c>
       <c r="P39">
-        <v>0.5613899999999999</v>
+        <v>79.78431882622051</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Skn</t>
         </is>
       </c>
       <c r="B40">
@@ -2502,53 +2502,53 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D40">
-        <v>61.74</v>
+        <v>0.4071607474923072</v>
       </c>
       <c r="E40">
-        <v>11.46170678</v>
+        <v>1.88378500877487</v>
       </c>
       <c r="F40">
-        <v>0.6297293312500001</v>
+        <v>3.188207023643321</v>
       </c>
       <c r="G40">
-        <v>17.693484995</v>
+        <v>1.393201057574375</v>
       </c>
       <c r="H40">
-        <v>35.41850689</v>
+        <v>1.555589401636817</v>
       </c>
       <c r="I40">
-        <v>5.615525</v>
+        <v>3.279395585164672</v>
       </c>
       <c r="J40">
-        <v>13.14557359</v>
+        <v>3.864676521503712</v>
       </c>
       <c r="K40">
-        <v>48.714846675</v>
+        <v>-0.6414782306773201</v>
       </c>
       <c r="L40">
-        <v>0.660354746</v>
+        <v>2.064862424691188</v>
       </c>
       <c r="M40">
-        <v>4.947808788</v>
+        <v>1.368795158293313</v>
       </c>
       <c r="N40">
-        <v>9.2178</v>
+        <v>1.620617202447554</v>
       </c>
       <c r="O40">
-        <v>4.76</v>
+        <v>-0.01103800601217965</v>
       </c>
       <c r="P40">
-        <v>4.73948</v>
+        <v>4.95510254742786</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Krt</t>
         </is>
       </c>
       <c r="B41">
@@ -2556,53 +2556,53 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D41">
-        <v>78.42</v>
+        <v>-0.613263447233948</v>
       </c>
       <c r="E41">
-        <v>16.109238045</v>
+        <v>8.648321532755514</v>
       </c>
       <c r="F41">
-        <v>2.481818808</v>
+        <v>11.82697372071716</v>
       </c>
       <c r="G41">
-        <v>24.3316142</v>
+        <v>4.23073563480237</v>
       </c>
       <c r="H41">
-        <v>41.513371705</v>
+        <v>5.181999939447821</v>
       </c>
       <c r="I41">
-        <v>7.78322</v>
+        <v>20.31445369367491</v>
       </c>
       <c r="J41">
-        <v>16.02637263</v>
+        <v>49.22859501327883</v>
       </c>
       <c r="K41">
-        <v>60.802098415</v>
+        <v>-0.02853902266674258</v>
       </c>
       <c r="L41">
-        <v>1.112857435</v>
+        <v>6.353272353683381</v>
       </c>
       <c r="M41">
-        <v>6.581445851</v>
+        <v>3.287919655953605</v>
       </c>
       <c r="N41">
-        <v>10.7634</v>
+        <v>11.09946257603131</v>
       </c>
       <c r="O41">
-        <v>5.14</v>
+        <v>-0.3442729443225785</v>
       </c>
       <c r="P41">
-        <v>7.17014</v>
+        <v>52.81085205801283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B42">
@@ -2610,53 +2610,53 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D42">
-        <v>84.62301949025488</v>
+        <v>3.556377916917322E-05</v>
       </c>
       <c r="E42">
-        <v>17.8403663758991</v>
+        <v>6.308277101313254E-12</v>
       </c>
       <c r="F42">
-        <v>8.260071426002698</v>
+        <v>6.788758437654391E-120</v>
       </c>
       <c r="G42">
-        <v>26.9256515195012</v>
+        <v>8.444312380605065E-11</v>
       </c>
       <c r="H42">
-        <v>43.96757849330884</v>
+        <v>1.079859156867694E-12</v>
       </c>
       <c r="I42">
-        <v>9.491899503273013</v>
+        <v>1.058330620461284E-35</v>
       </c>
       <c r="J42">
-        <v>17.04192697403388</v>
+        <v>1.350050723231868E-12</v>
       </c>
       <c r="K42">
-        <v>59.15732669183163</v>
+        <v>2.153670477125398E-06</v>
       </c>
       <c r="L42">
-        <v>1.571739200236732</v>
+        <v>5.621224238275127E-28</v>
       </c>
       <c r="M42">
-        <v>7.513545943318591</v>
+        <v>2.716488168954023E-11</v>
       </c>
       <c r="N42">
-        <v>11.09600685271904</v>
+        <v>0.003543123848253125</v>
       </c>
       <c r="O42">
-        <v>5.183740629549625</v>
+        <v>0.08864031151392954</v>
       </c>
       <c r="P42">
-        <v>9.23278722935907</v>
+        <v>5.354602293376872E-32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>log_norm</t>
         </is>
       </c>
       <c r="B43">
@@ -2664,53 +2664,53 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D43">
-        <v>102.2325</v>
+        <v>8.061493344226834E-06</v>
       </c>
       <c r="E43">
-        <v>22.2247686125</v>
+        <v>0.1669913157547267</v>
       </c>
       <c r="F43">
-        <v>10.4876052425</v>
+        <v>5.733834926561614E-29</v>
       </c>
       <c r="G43">
-        <v>33.25831458</v>
+        <v>0.2760146083672259</v>
       </c>
       <c r="H43">
-        <v>49.981022305</v>
+        <v>0.01638668295298237</v>
       </c>
       <c r="I43">
-        <v>10.95063</v>
+        <v>0.01668812383331775</v>
       </c>
       <c r="J43">
-        <v>19.60579318</v>
+        <v>0.2574315986593589</v>
       </c>
       <c r="K43">
-        <v>70.01510260250001</v>
+        <v>6.648422029889754E-17</v>
       </c>
       <c r="L43">
-        <v>1.91361964125</v>
+        <v>0.0001536630967093455</v>
       </c>
       <c r="M43">
-        <v>9.492958452</v>
+        <v>0.02060734156439949</v>
       </c>
       <c r="N43">
-        <v>12.4709</v>
+        <v>0.816462086543952</v>
       </c>
       <c r="O43">
-        <v>5.55</v>
+        <v>0.1024967635995377</v>
       </c>
       <c r="P43">
-        <v>11.2183375</v>
+        <v>0.0009186696362891093</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B44">
@@ -2722,49 +2722,49 @@
         </is>
       </c>
       <c r="D44">
-        <v>194.75</v>
+        <v>6670</v>
       </c>
       <c r="E44">
-        <v>239.462572</v>
+        <v>6670</v>
       </c>
       <c r="F44">
-        <v>79.32169396</v>
+        <v>6670</v>
       </c>
       <c r="G44">
-        <v>241.9718071</v>
+        <v>6670</v>
       </c>
       <c r="H44">
-        <v>257.8555336</v>
+        <v>6670</v>
       </c>
       <c r="I44">
-        <v>166.443</v>
+        <v>6670</v>
       </c>
       <c r="J44">
-        <v>134.6777776</v>
+        <v>6670</v>
       </c>
       <c r="K44">
-        <v>94.23522972000001</v>
+        <v>6670</v>
       </c>
       <c r="L44">
-        <v>22.15430072</v>
+        <v>6670</v>
       </c>
       <c r="M44">
-        <v>38.99680292</v>
+        <v>6670</v>
       </c>
       <c r="N44">
-        <v>48.9962</v>
+        <v>6670</v>
       </c>
       <c r="O44">
-        <v>6.93</v>
+        <v>6670</v>
       </c>
       <c r="P44">
-        <v>159.59831</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DP</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B45">
@@ -2776,49 +2776,49 @@
         </is>
       </c>
       <c r="D45">
-        <v>30.695890544573</v>
+        <v>31.33</v>
       </c>
       <c r="E45">
-        <v>9.593811581615221</v>
+        <v>1.590526316</v>
       </c>
       <c r="F45">
-        <v>12.38731880097358</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>13.24837619351964</v>
+        <v>3.035173591</v>
       </c>
       <c r="H45">
-        <v>13.2290777249869</v>
+        <v>16.67872022</v>
       </c>
       <c r="I45">
-        <v>8.061396787736523</v>
+        <v>0.51483</v>
       </c>
       <c r="J45">
-        <v>6.231588464251051</v>
+        <v>5.557148367</v>
       </c>
       <c r="K45">
-        <v>14.30798327960644</v>
+        <v>9.399813067</v>
       </c>
       <c r="L45">
-        <v>1.624834084655888</v>
+        <v>0.004682622</v>
       </c>
       <c r="M45">
-        <v>3.908789245351646</v>
+        <v>0.407673861</v>
       </c>
       <c r="N45">
-        <v>2.893556645465598</v>
+        <v>4.3742</v>
       </c>
       <c r="O45">
-        <v>0.5755469371258991</v>
+        <v>3.69</v>
       </c>
       <c r="P45">
-        <v>7.492259983170422</v>
+        <v>0.5613899999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B46">
@@ -2830,49 +2830,49 @@
         </is>
       </c>
       <c r="D46">
-        <v>0.3758523938166313</v>
+        <v>61.74</v>
       </c>
       <c r="E46">
-        <v>0.117470351398986</v>
+        <v>11.46170678</v>
       </c>
       <c r="F46">
-        <v>0.1516751376720954</v>
+        <v>0.6297293312500001</v>
       </c>
       <c r="G46">
-        <v>0.1622182584762306</v>
+        <v>17.693484995</v>
       </c>
       <c r="H46">
-        <v>0.1619819605397205</v>
+        <v>35.41850689</v>
       </c>
       <c r="I46">
-        <v>0.0987068700866265</v>
+        <v>5.615525</v>
       </c>
       <c r="J46">
-        <v>0.0763019870092335</v>
+        <v>13.14557359</v>
       </c>
       <c r="K46">
-        <v>0.175192498765252</v>
+        <v>48.714846675</v>
       </c>
       <c r="L46">
-        <v>0.01989509896727009</v>
+        <v>0.660354746</v>
       </c>
       <c r="M46">
-        <v>0.04786073212819231</v>
+        <v>4.947808788</v>
       </c>
       <c r="N46">
-        <v>0.03542983026548953</v>
+        <v>9.2178</v>
       </c>
       <c r="O46">
-        <v>0.007047220010068892</v>
+        <v>4.76</v>
       </c>
       <c r="P46">
-        <v>0.09173813822674773</v>
+        <v>4.73948</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CV</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B47">
@@ -2884,49 +2884,49 @@
         </is>
       </c>
       <c r="D47">
-        <v>36.27368856544751</v>
+        <v>78.42</v>
       </c>
       <c r="E47">
-        <v>53.77586636659933</v>
+        <v>16.109238045</v>
       </c>
       <c r="F47">
-        <v>149.9662431728896</v>
+        <v>2.481818808</v>
       </c>
       <c r="G47">
-        <v>49.20354920260467</v>
+        <v>24.3316142</v>
       </c>
       <c r="H47">
-        <v>30.0882563432511</v>
+        <v>41.513371705</v>
       </c>
       <c r="I47">
-        <v>84.92922607278743</v>
+        <v>7.78322</v>
       </c>
       <c r="J47">
-        <v>36.56621973410564</v>
+        <v>16.02637263</v>
       </c>
       <c r="K47">
-        <v>24.18632497398174</v>
+        <v>60.802098415</v>
       </c>
       <c r="L47">
-        <v>103.3780976138509</v>
+        <v>1.112857435</v>
       </c>
       <c r="M47">
-        <v>52.02322944238507</v>
+        <v>6.581445851</v>
       </c>
       <c r="N47">
-        <v>26.07745907039108</v>
+        <v>10.7634</v>
       </c>
       <c r="O47">
-        <v>11.10292698375042</v>
+        <v>5.14</v>
       </c>
       <c r="P47">
-        <v>81.14840943530035</v>
+        <v>7.17014</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Skn</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="B48">
@@ -2938,49 +2938,49 @@
         </is>
       </c>
       <c r="D48">
-        <v>0.682347877602858</v>
+        <v>84.62301949025488</v>
       </c>
       <c r="E48">
-        <v>3.55402438494488</v>
+        <v>17.8403663758991</v>
       </c>
       <c r="F48">
-        <v>2.166366936045828</v>
+        <v>8.260071426002698</v>
       </c>
       <c r="G48">
-        <v>2.161799938450339</v>
+        <v>26.9256515195012</v>
       </c>
       <c r="H48">
-        <v>2.526827889365178</v>
+        <v>43.96757849330884</v>
       </c>
       <c r="I48">
-        <v>6.711975531198767</v>
+        <v>9.491899503273013</v>
       </c>
       <c r="J48">
-        <v>4.055202330110222</v>
+        <v>17.04192697403388</v>
       </c>
       <c r="K48">
-        <v>-0.3943404904298978</v>
+        <v>59.15732669183163</v>
       </c>
       <c r="L48">
-        <v>3.829868565063429</v>
+        <v>1.571739200236732</v>
       </c>
       <c r="M48">
-        <v>1.549570379757703</v>
+        <v>7.513545943318591</v>
       </c>
       <c r="N48">
-        <v>1.748341339946398</v>
+        <v>11.09600685271904</v>
       </c>
       <c r="O48">
-        <v>0.3705065786126309</v>
+        <v>5.183740629549625</v>
       </c>
       <c r="P48">
-        <v>4.950559076498209</v>
+        <v>9.23278722935907</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Krt</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B49">
@@ -2992,481 +2992,481 @@
         </is>
       </c>
       <c r="D49">
-        <v>-0.2563048941491273</v>
+        <v>102.2325</v>
       </c>
       <c r="E49">
-        <v>49.49584720209288</v>
+        <v>22.2247686125</v>
       </c>
       <c r="F49">
-        <v>4.688769646140562</v>
+        <v>10.4876052425</v>
       </c>
       <c r="G49">
-        <v>15.13763602745387</v>
+        <v>33.25831458</v>
       </c>
       <c r="H49">
-        <v>18.857055710281</v>
+        <v>49.981022305</v>
       </c>
       <c r="I49">
-        <v>81.29403221919721</v>
+        <v>10.95063</v>
       </c>
       <c r="J49">
-        <v>46.76971541001507</v>
+        <v>19.60579318</v>
       </c>
       <c r="K49">
-        <v>-0.3334737233527654</v>
+        <v>70.01510260250001</v>
       </c>
       <c r="L49">
-        <v>23.58540825780191</v>
+        <v>1.91361964125</v>
       </c>
       <c r="M49">
-        <v>4.341531561374921</v>
+        <v>9.492958452</v>
       </c>
       <c r="N49">
-        <v>10.35539788382398</v>
+        <v>12.4709</v>
       </c>
       <c r="O49">
-        <v>-0.1969710425322826</v>
+        <v>5.55</v>
       </c>
       <c r="P49">
-        <v>60.74971055640981</v>
+        <v>11.2183375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B50">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D50">
-        <v>4228</v>
+        <v>194.75</v>
       </c>
       <c r="E50">
-        <v>4228</v>
+        <v>239.462572</v>
       </c>
       <c r="F50">
-        <v>4228</v>
+        <v>79.32169396</v>
       </c>
       <c r="G50">
-        <v>4228</v>
+        <v>241.9718071</v>
       </c>
       <c r="H50">
-        <v>4228</v>
+        <v>257.8555336</v>
       </c>
       <c r="I50">
-        <v>4228</v>
+        <v>166.443</v>
       </c>
       <c r="J50">
-        <v>4228</v>
+        <v>134.6777776</v>
       </c>
       <c r="K50">
-        <v>4228</v>
+        <v>94.23522972000001</v>
       </c>
       <c r="L50">
-        <v>4228</v>
+        <v>22.15430072</v>
       </c>
       <c r="M50">
-        <v>4228</v>
+        <v>38.99680292</v>
       </c>
       <c r="N50">
-        <v>4228</v>
+        <v>48.9962</v>
       </c>
       <c r="O50">
-        <v>4228</v>
+        <v>6.93</v>
       </c>
       <c r="P50">
-        <v>4228</v>
+        <v>159.59831</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>DP</t>
         </is>
       </c>
       <c r="B51">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>30.695890544573</v>
       </c>
       <c r="E51">
-        <v>2.89</v>
+        <v>9.593811581615221</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>12.38731880097358</v>
       </c>
       <c r="G51">
-        <v>4.83</v>
+        <v>13.24837619351964</v>
       </c>
       <c r="H51">
-        <v>16.55</v>
+        <v>13.2290777249869</v>
       </c>
       <c r="I51">
-        <v>1.15</v>
+        <v>8.061396787736523</v>
       </c>
       <c r="J51">
-        <v>6.93</v>
+        <v>6.231588464251051</v>
       </c>
       <c r="K51">
-        <v>10.36</v>
+        <v>14.30798327960644</v>
       </c>
       <c r="L51">
-        <v>0.03</v>
+        <v>1.624834084655888</v>
       </c>
       <c r="M51">
-        <v>0.68</v>
+        <v>3.908789245351646</v>
       </c>
       <c r="N51">
-        <v>2.88</v>
+        <v>2.893556645465598</v>
       </c>
       <c r="O51">
-        <v>3.81</v>
+        <v>0.5755469371258991</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>7.492259983170422</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="B52">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D52">
-        <v>53.74</v>
+        <v>0.3758523938166313</v>
       </c>
       <c r="E52">
-        <v>12.4175</v>
+        <v>0.117470351398986</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.1516751376720954</v>
       </c>
       <c r="G52">
-        <v>19.45</v>
+        <v>0.1622182584762306</v>
       </c>
       <c r="H52">
-        <v>37.8075</v>
+        <v>0.1619819605397205</v>
       </c>
       <c r="I52">
-        <v>6.13</v>
+        <v>0.0987068700866265</v>
       </c>
       <c r="J52">
-        <v>13.85</v>
+        <v>0.0763019870092335</v>
       </c>
       <c r="K52">
-        <v>50.2075</v>
+        <v>0.175192498765252</v>
       </c>
       <c r="L52">
-        <v>0.89</v>
+        <v>0.01989509896727009</v>
       </c>
       <c r="M52">
-        <v>5.15</v>
+        <v>0.04786073212819231</v>
       </c>
       <c r="N52">
-        <v>6.91</v>
+        <v>0.03542983026548953</v>
       </c>
       <c r="O52">
-        <v>4.82</v>
+        <v>0.007047220010068892</v>
       </c>
       <c r="P52">
-        <v>4.24</v>
+        <v>0.09173813822674773</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>CV</t>
         </is>
       </c>
       <c r="B53">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D53">
-        <v>75.36</v>
+        <v>36.27368856544751</v>
       </c>
       <c r="E53">
-        <v>16.88</v>
+        <v>53.77586636659933</v>
       </c>
       <c r="F53">
-        <v>0.99</v>
+        <v>149.9662431728896</v>
       </c>
       <c r="G53">
-        <v>26</v>
+        <v>49.20354920260467</v>
       </c>
       <c r="H53">
-        <v>43.32</v>
+        <v>30.0882563432511</v>
       </c>
       <c r="I53">
-        <v>7.75</v>
+        <v>84.92922607278743</v>
       </c>
       <c r="J53">
-        <v>16.57</v>
+        <v>36.56621973410564</v>
       </c>
       <c r="K53">
-        <v>61.075</v>
+        <v>24.18632497398174</v>
       </c>
       <c r="L53">
-        <v>1.36</v>
+        <v>103.3780976138509</v>
       </c>
       <c r="M53">
-        <v>7.11</v>
+        <v>52.02322944238507</v>
       </c>
       <c r="N53">
-        <v>8.34</v>
+        <v>26.07745907039108</v>
       </c>
       <c r="O53">
-        <v>5.23</v>
+        <v>11.10292698375042</v>
       </c>
       <c r="P53">
-        <v>6.62</v>
+        <v>81.14840943530035</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Skn</t>
         </is>
       </c>
       <c r="B54">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D54">
-        <v>80.33983207190161</v>
+        <v>0.682347877602858</v>
       </c>
       <c r="E54">
-        <v>17.9805156102176</v>
+        <v>3.55402438494488</v>
       </c>
       <c r="F54">
-        <v>5.502570955534532</v>
+        <v>2.166366936045828</v>
       </c>
       <c r="G54">
-        <v>27.21310075685903</v>
+        <v>2.161799938450339</v>
       </c>
       <c r="H54">
-        <v>44.96917928098392</v>
+        <v>2.526827889365178</v>
       </c>
       <c r="I54">
-        <v>9.287708136234626</v>
+        <v>6.711975531198767</v>
       </c>
       <c r="J54">
-        <v>17.75604304635761</v>
+        <v>4.055202330110222</v>
       </c>
       <c r="K54">
-        <v>59.24865894039735</v>
+        <v>-0.3943404904298978</v>
       </c>
       <c r="L54">
-        <v>1.761991485335856</v>
+        <v>3.829868565063429</v>
       </c>
       <c r="M54">
-        <v>7.470501419110691</v>
+        <v>1.549570379757703</v>
       </c>
       <c r="N54">
-        <v>8.618017975402081</v>
+        <v>1.748341339946398</v>
       </c>
       <c r="O54">
-        <v>5.245167928098391</v>
+        <v>0.3705065786126309</v>
       </c>
       <c r="P54">
-        <v>9.39622280037843</v>
+        <v>4.950559076498209</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Krt</t>
         </is>
       </c>
       <c r="B55">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D55">
-        <v>104.46</v>
+        <v>-0.2563048941491273</v>
       </c>
       <c r="E55">
-        <v>21.8525</v>
+        <v>49.49584720209288</v>
       </c>
       <c r="F55">
-        <v>5.22</v>
+        <v>4.688769646140562</v>
       </c>
       <c r="G55">
-        <v>33.1725</v>
+        <v>15.13763602745387</v>
       </c>
       <c r="H55">
-        <v>50.5075</v>
+        <v>18.857055710281</v>
       </c>
       <c r="I55">
-        <v>10.4125</v>
+        <v>81.29403221919721</v>
       </c>
       <c r="J55">
-        <v>20.24</v>
+        <v>46.76971541001507</v>
       </c>
       <c r="K55">
-        <v>69.1275</v>
+        <v>-0.3334737233527654</v>
       </c>
       <c r="L55">
-        <v>2.27</v>
+        <v>23.58540825780191</v>
       </c>
       <c r="M55">
-        <v>9.279999999999999</v>
+        <v>4.341531561374921</v>
       </c>
       <c r="N55">
-        <v>9.92</v>
+        <v>10.35539788382398</v>
       </c>
       <c r="O55">
-        <v>5.63</v>
+        <v>-0.1969710425322826</v>
       </c>
       <c r="P55">
-        <v>11.7125</v>
+        <v>60.74971055640981</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B56">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D56">
-        <v>167.03</v>
+        <v>4.345152154703439E-14</v>
       </c>
       <c r="E56">
-        <v>84.20999999999999</v>
+        <v>1.176515060131585E-11</v>
       </c>
       <c r="F56">
-        <v>71.59999999999999</v>
+        <v>9.306478706001928E-81</v>
       </c>
       <c r="G56">
-        <v>109.3</v>
+        <v>1.386248525153298E-12</v>
       </c>
       <c r="H56">
-        <v>185.84</v>
+        <v>3.295434523276407E-07</v>
       </c>
       <c r="I56">
-        <v>179.44</v>
+        <v>2.043877171779886E-70</v>
       </c>
       <c r="J56">
-        <v>155.32</v>
+        <v>5.800742412002618E-10</v>
       </c>
       <c r="K56">
-        <v>90.31</v>
+        <v>0.0003338264244968588</v>
       </c>
       <c r="L56">
-        <v>9.76</v>
+        <v>3.297207040110283E-42</v>
       </c>
       <c r="M56">
-        <v>29.13</v>
+        <v>1.889130040854983E-10</v>
       </c>
       <c r="N56">
-        <v>54.5</v>
+        <v>1.219853834865889E-13</v>
       </c>
       <c r="O56">
-        <v>6.94</v>
+        <v>0.00322379835582983</v>
       </c>
       <c r="P56">
-        <v>66.89</v>
+        <v>2.25213746729111E-29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DP</t>
+          <t>log_norm</t>
         </is>
       </c>
       <c r="B57">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>POT</t>
         </is>
       </c>
       <c r="D57">
-        <v>32.34933047025628</v>
+        <v>9.182797812667183E-05</v>
       </c>
       <c r="E57">
-        <v>7.935856692986169</v>
+        <v>0.7673462113564113</v>
       </c>
       <c r="F57">
-        <v>10.35174279693656</v>
+        <v>6.826593736435667E-12</v>
       </c>
       <c r="G57">
-        <v>10.72782371976074</v>
+        <v>0.2928081843054446</v>
       </c>
       <c r="H57">
-        <v>11.03239185911104</v>
+        <v>0.5270617283351768</v>
       </c>
       <c r="I57">
-        <v>6.750704751507438</v>
+        <v>1.893885510023975E-06</v>
       </c>
       <c r="J57">
-        <v>6.551588604926725</v>
+        <v>0.1185516822253643</v>
       </c>
       <c r="K57">
-        <v>13.15049449953328</v>
+        <v>8.036034299088005E-13</v>
       </c>
       <c r="L57">
-        <v>1.25692126255146</v>
+        <v>5.772897933040733E-10</v>
       </c>
       <c r="M57">
-        <v>3.114352343926052</v>
+        <v>0.002502294868730493</v>
       </c>
       <c r="N57">
-        <v>2.545781306035143</v>
+        <v>0.0008731403626698341</v>
       </c>
       <c r="O57">
-        <v>0.565548399257134</v>
+        <v>0.1603434048160715</v>
       </c>
       <c r="P57">
-        <v>7.847109509263389</v>
+        <v>0.04206638231544673</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B58">
@@ -3478,49 +3478,49 @@
         </is>
       </c>
       <c r="D58">
-        <v>0.4975054094384248</v>
+        <v>4228</v>
       </c>
       <c r="E58">
-        <v>0.1220467804401353</v>
+        <v>4228</v>
       </c>
       <c r="F58">
-        <v>0.1592010704310069</v>
+        <v>4228</v>
       </c>
       <c r="G58">
-        <v>0.1649848777238241</v>
+        <v>4228</v>
       </c>
       <c r="H58">
-        <v>0.1696688787422901</v>
+        <v>4228</v>
       </c>
       <c r="I58">
-        <v>0.1038201434952301</v>
+        <v>4228</v>
       </c>
       <c r="J58">
-        <v>0.1007579051555056</v>
+        <v>4228</v>
       </c>
       <c r="K58">
-        <v>0.202243510304596</v>
+        <v>4228</v>
       </c>
       <c r="L58">
-        <v>0.01933038855108558</v>
+        <v>4228</v>
       </c>
       <c r="M58">
-        <v>0.04789611146434875</v>
+        <v>4228</v>
       </c>
       <c r="N58">
-        <v>0.03915196860609609</v>
+        <v>4228</v>
       </c>
       <c r="O58">
-        <v>0.0086976572262714</v>
+        <v>4228</v>
       </c>
       <c r="P58">
-        <v>0.1206819236306534</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CV</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B59">
@@ -3532,49 +3532,49 @@
         </is>
       </c>
       <c r="D59">
-        <v>40.26561872982838</v>
+        <v>30</v>
       </c>
       <c r="E59">
-        <v>44.13586832001939</v>
+        <v>2.89</v>
       </c>
       <c r="F59">
-        <v>188.1255667684701</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>39.42154117463737</v>
+        <v>4.83</v>
       </c>
       <c r="H59">
-        <v>24.53322928171897</v>
+        <v>16.55</v>
       </c>
       <c r="I59">
-        <v>72.68429038128963</v>
+        <v>1.15</v>
       </c>
       <c r="J59">
-        <v>36.8977963604942</v>
+        <v>6.93</v>
       </c>
       <c r="K59">
-        <v>22.19542979489603</v>
+        <v>10.36</v>
       </c>
       <c r="L59">
-        <v>71.33526313901999</v>
+        <v>0.03</v>
       </c>
       <c r="M59">
-        <v>41.68866544833336</v>
+        <v>0.68</v>
       </c>
       <c r="N59">
-        <v>29.54021810236904</v>
+        <v>2.88</v>
       </c>
       <c r="O59">
-        <v>10.7822744096998</v>
+        <v>3.81</v>
       </c>
       <c r="P59">
-        <v>83.51344658352875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Skn</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B60">
@@ -3586,49 +3586,49 @@
         </is>
       </c>
       <c r="D60">
-        <v>0.3216588206301151</v>
+        <v>53.74</v>
       </c>
       <c r="E60">
-        <v>1.558165604371185</v>
+        <v>12.4175</v>
       </c>
       <c r="F60">
-        <v>2.851250864692235</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1.129404891497042</v>
+        <v>19.45</v>
       </c>
       <c r="H60">
-        <v>2.151151195261341</v>
+        <v>37.8075</v>
       </c>
       <c r="I60">
-        <v>7.72024992764743</v>
+        <v>6.13</v>
       </c>
       <c r="J60">
-        <v>5.659545391817687</v>
+        <v>13.85</v>
       </c>
       <c r="K60">
-        <v>-0.5424774743313288</v>
+        <v>50.2075</v>
       </c>
       <c r="L60">
-        <v>1.834321910892791</v>
+        <v>0.89</v>
       </c>
       <c r="M60">
-        <v>1.012059962637748</v>
+        <v>5.15</v>
       </c>
       <c r="N60">
-        <v>2.67400742990747</v>
+        <v>6.91</v>
       </c>
       <c r="O60">
-        <v>0.2162605283825286</v>
+        <v>4.82</v>
       </c>
       <c r="P60">
-        <v>2.133383062449027</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Krt</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B61">
@@ -3640,49 +3640,49 @@
         </is>
       </c>
       <c r="D61">
-        <v>-0.9747408530007391</v>
+        <v>75.36</v>
       </c>
       <c r="E61">
-        <v>5.792924375592985</v>
+        <v>16.88</v>
       </c>
       <c r="F61">
-        <v>8.970713156239421</v>
+        <v>0.99</v>
       </c>
       <c r="G61">
-        <v>3.403544284543568</v>
+        <v>26</v>
       </c>
       <c r="H61">
-        <v>14.51819435270616</v>
+        <v>43.32</v>
       </c>
       <c r="I61">
-        <v>125.6879245546951</v>
+        <v>7.75</v>
       </c>
       <c r="J61">
-        <v>86.22954775162131</v>
+        <v>16.57</v>
       </c>
       <c r="K61">
-        <v>-0.03217695583728952</v>
+        <v>61.075</v>
       </c>
       <c r="L61">
-        <v>4.451872048987403</v>
+        <v>1.36</v>
       </c>
       <c r="M61">
-        <v>2.835343790480077</v>
+        <v>7.11</v>
       </c>
       <c r="N61">
-        <v>31.54528982457563</v>
+        <v>8.34</v>
       </c>
       <c r="O61">
-        <v>-0.3728456746336901</v>
+        <v>5.23</v>
       </c>
       <c r="P61">
-        <v>5.698920652047507</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="B62">
@@ -3690,53 +3690,53 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D62">
-        <v>5335</v>
+        <v>80.33983207190161</v>
       </c>
       <c r="E62">
-        <v>5335</v>
+        <v>17.9805156102176</v>
       </c>
       <c r="F62">
-        <v>5335</v>
+        <v>5.502570955534532</v>
       </c>
       <c r="G62">
-        <v>5335</v>
+        <v>27.21310075685903</v>
       </c>
       <c r="H62">
-        <v>5335</v>
+        <v>44.96917928098392</v>
       </c>
       <c r="I62">
-        <v>5335</v>
+        <v>9.287708136234626</v>
       </c>
       <c r="J62">
-        <v>5335</v>
+        <v>17.75604304635761</v>
       </c>
       <c r="K62">
-        <v>5335</v>
+        <v>59.24865894039735</v>
       </c>
       <c r="L62">
-        <v>5335</v>
+        <v>1.761991485335856</v>
       </c>
       <c r="M62">
-        <v>5335</v>
+        <v>7.470501419110691</v>
       </c>
       <c r="N62">
-        <v>5335</v>
+        <v>8.618017975402081</v>
       </c>
       <c r="O62">
-        <v>5335</v>
+        <v>5.245167928098391</v>
       </c>
       <c r="P62">
-        <v>5335</v>
+        <v>9.39622280037843</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B63">
@@ -3744,53 +3744,53 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D63">
-        <v>30.35</v>
+        <v>104.46</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>21.8525</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="G63">
-        <v>4.15</v>
+        <v>33.1725</v>
       </c>
       <c r="H63">
-        <v>21.2</v>
+        <v>50.5075</v>
       </c>
       <c r="I63">
-        <v>1.96</v>
+        <v>10.4125</v>
       </c>
       <c r="J63">
-        <v>5.57</v>
+        <v>20.24</v>
       </c>
       <c r="K63">
-        <v>9.73</v>
+        <v>69.1275</v>
       </c>
       <c r="L63">
-        <v>0.08</v>
+        <v>2.27</v>
       </c>
       <c r="M63">
-        <v>0.66</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="N63">
-        <v>3.01</v>
+        <v>9.92</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>5.63</v>
       </c>
       <c r="P63">
-        <v>0.92</v>
+        <v>11.7125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B64">
@@ -3798,53 +3798,53 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D64">
-        <v>59.575</v>
+        <v>167.03</v>
       </c>
       <c r="E64">
-        <v>10.69</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="F64">
-        <v>0.39</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G64">
-        <v>16.76</v>
+        <v>109.3</v>
       </c>
       <c r="H64">
-        <v>35.25</v>
+        <v>185.84</v>
       </c>
       <c r="I64">
-        <v>6.29</v>
+        <v>179.44</v>
       </c>
       <c r="J64">
-        <v>14.83</v>
+        <v>155.32</v>
       </c>
       <c r="K64">
-        <v>45.935</v>
+        <v>90.31</v>
       </c>
       <c r="L64">
-        <v>0.76</v>
+        <v>9.76</v>
       </c>
       <c r="M64">
-        <v>4.57</v>
+        <v>29.13</v>
       </c>
       <c r="N64">
-        <v>7.72</v>
+        <v>54.5</v>
       </c>
       <c r="O64">
-        <v>4.71</v>
+        <v>6.94</v>
       </c>
       <c r="P64">
-        <v>5.13</v>
+        <v>66.89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>DP</t>
         </is>
       </c>
       <c r="B65">
@@ -3852,53 +3852,53 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D65">
-        <v>74.98999999999999</v>
+        <v>32.34933047025628</v>
       </c>
       <c r="E65">
-        <v>14.36</v>
+        <v>7.935856692986169</v>
       </c>
       <c r="F65">
-        <v>1.87</v>
+        <v>10.35174279693656</v>
       </c>
       <c r="G65">
-        <v>21.91</v>
+        <v>10.72782371976074</v>
       </c>
       <c r="H65">
-        <v>40.32</v>
+        <v>11.03239185911104</v>
       </c>
       <c r="I65">
-        <v>7.79</v>
+        <v>6.750704751507438</v>
       </c>
       <c r="J65">
-        <v>17.65</v>
+        <v>6.551588604926725</v>
       </c>
       <c r="K65">
-        <v>55.73</v>
+        <v>13.15049449953328</v>
       </c>
       <c r="L65">
-        <v>1.11</v>
+        <v>1.25692126255146</v>
       </c>
       <c r="M65">
-        <v>6.01</v>
+        <v>3.114352343926052</v>
       </c>
       <c r="N65">
-        <v>9.08</v>
+        <v>2.545781306035143</v>
       </c>
       <c r="O65">
-        <v>5.06</v>
+        <v>0.565548399257134</v>
       </c>
       <c r="P65">
-        <v>7.67</v>
+        <v>7.847109509263389</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="B66">
@@ -3906,53 +3906,53 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D66">
-        <v>82.63057731958763</v>
+        <v>0.4975054094384248</v>
       </c>
       <c r="E66">
-        <v>15.55840674789128</v>
+        <v>0.1220467804401353</v>
       </c>
       <c r="F66">
-        <v>7.139340206185567</v>
+        <v>0.1592010704310069</v>
       </c>
       <c r="G66">
-        <v>23.50125960637301</v>
+        <v>0.1649848777238241</v>
       </c>
       <c r="H66">
-        <v>42.14353139643861</v>
+        <v>0.1696688787422901</v>
       </c>
       <c r="I66">
-        <v>8.489546391752578</v>
+        <v>0.1038201434952301</v>
       </c>
       <c r="J66">
-        <v>18.6422717900656</v>
+        <v>0.1007579051555056</v>
       </c>
       <c r="K66">
-        <v>54.46443486410497</v>
+        <v>0.202243510304596</v>
       </c>
       <c r="L66">
-        <v>1.439272727272727</v>
+        <v>0.01933038855108558</v>
       </c>
       <c r="M66">
-        <v>6.503531396438613</v>
+        <v>0.04789611146434875</v>
       </c>
       <c r="N66">
-        <v>9.480183692596064</v>
+        <v>0.03915196860609609</v>
       </c>
       <c r="O66">
-        <v>5.09422305529522</v>
+        <v>0.0086976572262714</v>
       </c>
       <c r="P66">
-        <v>9.899435801312089</v>
+        <v>0.1206819236306534</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>CV</t>
         </is>
       </c>
       <c r="B67">
@@ -3960,53 +3960,53 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D67">
-        <v>105.24</v>
+        <v>40.26561872982838</v>
       </c>
       <c r="E67">
-        <v>19.02</v>
+        <v>44.13586832001939</v>
       </c>
       <c r="F67">
-        <v>9.024999999999999</v>
+        <v>188.1255667684701</v>
       </c>
       <c r="G67">
-        <v>28.35</v>
+        <v>39.42154117463737</v>
       </c>
       <c r="H67">
-        <v>46.445</v>
+        <v>24.53322928171897</v>
       </c>
       <c r="I67">
-        <v>9.4</v>
+        <v>72.68429038128963</v>
       </c>
       <c r="J67">
-        <v>21.115</v>
+        <v>36.8977963604942</v>
       </c>
       <c r="K67">
-        <v>64.12</v>
+        <v>22.19542979489603</v>
       </c>
       <c r="L67">
-        <v>1.68</v>
+        <v>71.33526313901999</v>
       </c>
       <c r="M67">
-        <v>7.94</v>
+        <v>41.68866544833336</v>
       </c>
       <c r="N67">
-        <v>10.78</v>
+        <v>29.54021810236904</v>
       </c>
       <c r="O67">
-        <v>5.44</v>
+        <v>10.7822744096998</v>
       </c>
       <c r="P67">
-        <v>12.42</v>
+        <v>83.51344658352875</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Skn</t>
         </is>
       </c>
       <c r="B68">
@@ -4014,53 +4014,53 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D68">
-        <v>190.52</v>
+        <v>0.3216588206301151</v>
       </c>
       <c r="E68">
-        <v>116.23</v>
+        <v>1.558165604371185</v>
       </c>
       <c r="F68">
-        <v>77.61</v>
+        <v>2.851250864692235</v>
       </c>
       <c r="G68">
-        <v>146.44</v>
+        <v>1.129404891497042</v>
       </c>
       <c r="H68">
-        <v>224.07</v>
+        <v>2.151151195261341</v>
       </c>
       <c r="I68">
-        <v>103.57</v>
+        <v>7.72024992764743</v>
       </c>
       <c r="J68">
-        <v>184.71</v>
+        <v>5.659545391817687</v>
       </c>
       <c r="K68">
-        <v>92.59999999999999</v>
+        <v>-0.5424774743313288</v>
       </c>
       <c r="L68">
-        <v>10.12</v>
+        <v>1.834321910892791</v>
       </c>
       <c r="M68">
-        <v>34.52</v>
+        <v>1.012059962637748</v>
       </c>
       <c r="N68">
-        <v>32.12</v>
+        <v>2.67400742990747</v>
       </c>
       <c r="O68">
-        <v>6.99</v>
+        <v>0.2162605283825286</v>
       </c>
       <c r="P68">
-        <v>95.97</v>
+        <v>2.133383062449027</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DP</t>
+          <t>Krt</t>
         </is>
       </c>
       <c r="B69">
@@ -4068,53 +4068,53 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D69">
-        <v>29.22146822292576</v>
+        <v>-0.9747408530007391</v>
       </c>
       <c r="E69">
-        <v>7.475922527257105</v>
+        <v>5.792924375592985</v>
       </c>
       <c r="F69">
-        <v>11.21981365541462</v>
+        <v>8.970713156239421</v>
       </c>
       <c r="G69">
-        <v>10.28783778301421</v>
+        <v>3.403544284543568</v>
       </c>
       <c r="H69">
-        <v>11.11552219403732</v>
+        <v>14.51819435270616</v>
       </c>
       <c r="I69">
-        <v>4.345188998852154</v>
+        <v>125.6879245546951</v>
       </c>
       <c r="J69">
-        <v>6.120114964113037</v>
+        <v>86.22954775162131</v>
       </c>
       <c r="K69">
-        <v>13.05087679679754</v>
+        <v>-0.03217695583728952</v>
       </c>
       <c r="L69">
-        <v>1.12875614488018</v>
+        <v>4.451872048987403</v>
       </c>
       <c r="M69">
-        <v>2.948744932298759</v>
+        <v>2.835343790480077</v>
       </c>
       <c r="N69">
-        <v>2.703506770869821</v>
+        <v>31.54528982457563</v>
       </c>
       <c r="O69">
-        <v>0.515035165137412</v>
+        <v>-0.3728456746336901</v>
       </c>
       <c r="P69">
-        <v>7.158465085828961</v>
+        <v>5.698920652047507</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B70">
@@ -4122,53 +4122,53 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D70">
-        <v>0.400068926840993</v>
+        <v>2.61500531317753E-20</v>
       </c>
       <c r="E70">
-        <v>0.1023522938618002</v>
+        <v>3.112736239854305E-09</v>
       </c>
       <c r="F70">
-        <v>0.1536096261226199</v>
+        <v>5.339490572524831E-120</v>
       </c>
       <c r="G70">
-        <v>0.1408500144471051</v>
+        <v>2.207419456544884E-05</v>
       </c>
       <c r="H70">
-        <v>0.1521817795574306</v>
+        <v>9.087301934861568E-11</v>
       </c>
       <c r="I70">
-        <v>0.05948965624965499</v>
+        <v>2.516604461890122E-60</v>
       </c>
       <c r="J70">
-        <v>0.08379003433904307</v>
+        <v>2.056893808266116E-23</v>
       </c>
       <c r="K70">
-        <v>0.1786785740742646</v>
+        <v>0.004627127605562165</v>
       </c>
       <c r="L70">
-        <v>0.01545371560738696</v>
+        <v>8.38868855274642E-24</v>
       </c>
       <c r="M70">
-        <v>0.04037104541061507</v>
+        <v>1.435413702086297E-05</v>
       </c>
       <c r="N70">
-        <v>0.03701350816043819</v>
+        <v>5.875976632936747E-07</v>
       </c>
       <c r="O70">
-        <v>0.007051307765577688</v>
+        <v>0.03173032596331914</v>
       </c>
       <c r="P70">
-        <v>0.09800600787298729</v>
+        <v>4.883410895401522E-42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CV</t>
+          <t>log_norm</t>
         </is>
       </c>
       <c r="B71">
@@ -4176,53 +4176,53 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>POT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D71">
-        <v>35.36398893826776</v>
+        <v>1.548236222062788E-08</v>
       </c>
       <c r="E71">
-        <v>48.05069470413709</v>
+        <v>0.9959148069862214</v>
       </c>
       <c r="F71">
-        <v>157.1547696479529</v>
+        <v>4.996067556992662E-39</v>
       </c>
       <c r="G71">
-        <v>43.77568673052905</v>
+        <v>0.2514712990391743</v>
       </c>
       <c r="H71">
-        <v>26.37539338949809</v>
+        <v>0.04839861941987011</v>
       </c>
       <c r="I71">
-        <v>51.182817059265</v>
+        <v>5.104024518804958E-09</v>
       </c>
       <c r="J71">
-        <v>32.8292336525982</v>
+        <v>0.0942305162024754</v>
       </c>
       <c r="K71">
-        <v>23.96219997391139</v>
+        <v>2.59381012630379E-09</v>
       </c>
       <c r="L71">
-        <v>78.42545220870375</v>
+        <v>1.61772758302341E-07</v>
       </c>
       <c r="M71">
-        <v>45.34067343648891</v>
+        <v>0.2453030075332645</v>
       </c>
       <c r="N71">
-        <v>28.51745133357737</v>
+        <v>0.3191043439441525</v>
       </c>
       <c r="O71">
-        <v>10.11018087639597</v>
+        <v>0.03210027565950649</v>
       </c>
       <c r="P71">
-        <v>72.31184917508294</v>
+        <v>4.042864854710428E-07</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Skn</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B72">
@@ -4234,49 +4234,49 @@
         </is>
       </c>
       <c r="D72">
-        <v>0.5747180807645038</v>
+        <v>5335</v>
       </c>
       <c r="E72">
-        <v>2.303123507856164</v>
+        <v>5335</v>
       </c>
       <c r="F72">
-        <v>2.268371158470417</v>
+        <v>5335</v>
       </c>
       <c r="G72">
-        <v>2.073586272931837</v>
+        <v>5335</v>
       </c>
       <c r="H72">
-        <v>3.220037429055359</v>
+        <v>5335</v>
       </c>
       <c r="I72">
-        <v>6.012355156881818</v>
+        <v>5335</v>
       </c>
       <c r="J72">
-        <v>5.551434465823735</v>
+        <v>5335</v>
       </c>
       <c r="K72">
-        <v>-0.4110268459657945</v>
+        <v>5335</v>
       </c>
       <c r="L72">
-        <v>2.637263802319302</v>
+        <v>5335</v>
       </c>
       <c r="M72">
-        <v>1.577512622020866</v>
+        <v>5335</v>
       </c>
       <c r="N72">
-        <v>1.816266055743625</v>
+        <v>5335</v>
       </c>
       <c r="O72">
-        <v>0.5746768200289826</v>
+        <v>5335</v>
       </c>
       <c r="P72">
-        <v>2.414215134611602</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Krt</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B73">
@@ -4288,43 +4288,691 @@
         </is>
       </c>
       <c r="D73">
+        <v>30.35</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>4.15</v>
+      </c>
+      <c r="H73">
+        <v>21.2</v>
+      </c>
+      <c r="I73">
+        <v>1.96</v>
+      </c>
+      <c r="J73">
+        <v>5.57</v>
+      </c>
+      <c r="K73">
+        <v>9.73</v>
+      </c>
+      <c r="L73">
+        <v>0.08</v>
+      </c>
+      <c r="M73">
+        <v>0.66</v>
+      </c>
+      <c r="N73">
+        <v>3.01</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>2018</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>59.575</v>
+      </c>
+      <c r="E74">
+        <v>10.69</v>
+      </c>
+      <c r="F74">
+        <v>0.39</v>
+      </c>
+      <c r="G74">
+        <v>16.76</v>
+      </c>
+      <c r="H74">
+        <v>35.25</v>
+      </c>
+      <c r="I74">
+        <v>6.29</v>
+      </c>
+      <c r="J74">
+        <v>14.83</v>
+      </c>
+      <c r="K74">
+        <v>45.935</v>
+      </c>
+      <c r="L74">
+        <v>0.76</v>
+      </c>
+      <c r="M74">
+        <v>4.57</v>
+      </c>
+      <c r="N74">
+        <v>7.72</v>
+      </c>
+      <c r="O74">
+        <v>4.71</v>
+      </c>
+      <c r="P74">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Med</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>2018</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="E75">
+        <v>14.36</v>
+      </c>
+      <c r="F75">
+        <v>1.87</v>
+      </c>
+      <c r="G75">
+        <v>21.91</v>
+      </c>
+      <c r="H75">
+        <v>40.32</v>
+      </c>
+      <c r="I75">
+        <v>7.79</v>
+      </c>
+      <c r="J75">
+        <v>17.65</v>
+      </c>
+      <c r="K75">
+        <v>55.73</v>
+      </c>
+      <c r="L75">
+        <v>1.11</v>
+      </c>
+      <c r="M75">
+        <v>6.01</v>
+      </c>
+      <c r="N75">
+        <v>9.08</v>
+      </c>
+      <c r="O75">
+        <v>5.06</v>
+      </c>
+      <c r="P75">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>2018</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>82.63057731958763</v>
+      </c>
+      <c r="E76">
+        <v>15.55840674789128</v>
+      </c>
+      <c r="F76">
+        <v>7.139340206185567</v>
+      </c>
+      <c r="G76">
+        <v>23.50125960637301</v>
+      </c>
+      <c r="H76">
+        <v>42.14353139643861</v>
+      </c>
+      <c r="I76">
+        <v>8.489546391752578</v>
+      </c>
+      <c r="J76">
+        <v>18.6422717900656</v>
+      </c>
+      <c r="K76">
+        <v>54.46443486410497</v>
+      </c>
+      <c r="L76">
+        <v>1.439272727272727</v>
+      </c>
+      <c r="M76">
+        <v>6.503531396438613</v>
+      </c>
+      <c r="N76">
+        <v>9.480183692596064</v>
+      </c>
+      <c r="O76">
+        <v>5.09422305529522</v>
+      </c>
+      <c r="P76">
+        <v>9.899435801312089</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>2018</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>105.24</v>
+      </c>
+      <c r="E77">
+        <v>19.02</v>
+      </c>
+      <c r="F77">
+        <v>9.024999999999999</v>
+      </c>
+      <c r="G77">
+        <v>28.35</v>
+      </c>
+      <c r="H77">
+        <v>46.445</v>
+      </c>
+      <c r="I77">
+        <v>9.4</v>
+      </c>
+      <c r="J77">
+        <v>21.115</v>
+      </c>
+      <c r="K77">
+        <v>64.12</v>
+      </c>
+      <c r="L77">
+        <v>1.68</v>
+      </c>
+      <c r="M77">
+        <v>7.94</v>
+      </c>
+      <c r="N77">
+        <v>10.78</v>
+      </c>
+      <c r="O77">
+        <v>5.44</v>
+      </c>
+      <c r="P77">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>2018</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>190.52</v>
+      </c>
+      <c r="E78">
+        <v>116.23</v>
+      </c>
+      <c r="F78">
+        <v>77.61</v>
+      </c>
+      <c r="G78">
+        <v>146.44</v>
+      </c>
+      <c r="H78">
+        <v>224.07</v>
+      </c>
+      <c r="I78">
+        <v>103.57</v>
+      </c>
+      <c r="J78">
+        <v>184.71</v>
+      </c>
+      <c r="K78">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="L78">
+        <v>10.12</v>
+      </c>
+      <c r="M78">
+        <v>34.52</v>
+      </c>
+      <c r="N78">
+        <v>32.12</v>
+      </c>
+      <c r="O78">
+        <v>6.99</v>
+      </c>
+      <c r="P78">
+        <v>95.97</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>DP</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>2018</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>29.22146822292576</v>
+      </c>
+      <c r="E79">
+        <v>7.475922527257105</v>
+      </c>
+      <c r="F79">
+        <v>11.21981365541462</v>
+      </c>
+      <c r="G79">
+        <v>10.28783778301421</v>
+      </c>
+      <c r="H79">
+        <v>11.11552219403732</v>
+      </c>
+      <c r="I79">
+        <v>4.345188998852154</v>
+      </c>
+      <c r="J79">
+        <v>6.120114964113037</v>
+      </c>
+      <c r="K79">
+        <v>13.05087679679754</v>
+      </c>
+      <c r="L79">
+        <v>1.12875614488018</v>
+      </c>
+      <c r="M79">
+        <v>2.948744932298759</v>
+      </c>
+      <c r="N79">
+        <v>2.703506770869821</v>
+      </c>
+      <c r="O79">
+        <v>0.515035165137412</v>
+      </c>
+      <c r="P79">
+        <v>7.158465085828961</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EP</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>2018</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>0.400068926840993</v>
+      </c>
+      <c r="E80">
+        <v>0.1023522938618002</v>
+      </c>
+      <c r="F80">
+        <v>0.1536096261226199</v>
+      </c>
+      <c r="G80">
+        <v>0.1408500144471051</v>
+      </c>
+      <c r="H80">
+        <v>0.1521817795574306</v>
+      </c>
+      <c r="I80">
+        <v>0.05948965624965499</v>
+      </c>
+      <c r="J80">
+        <v>0.08379003433904307</v>
+      </c>
+      <c r="K80">
+        <v>0.1786785740742646</v>
+      </c>
+      <c r="L80">
+        <v>0.01545371560738696</v>
+      </c>
+      <c r="M80">
+        <v>0.04037104541061507</v>
+      </c>
+      <c r="N80">
+        <v>0.03701350816043819</v>
+      </c>
+      <c r="O80">
+        <v>0.007051307765577688</v>
+      </c>
+      <c r="P80">
+        <v>0.09800600787298729</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>2018</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>35.36398893826776</v>
+      </c>
+      <c r="E81">
+        <v>48.05069470413709</v>
+      </c>
+      <c r="F81">
+        <v>157.1547696479529</v>
+      </c>
+      <c r="G81">
+        <v>43.77568673052905</v>
+      </c>
+      <c r="H81">
+        <v>26.37539338949809</v>
+      </c>
+      <c r="I81">
+        <v>51.182817059265</v>
+      </c>
+      <c r="J81">
+        <v>32.8292336525982</v>
+      </c>
+      <c r="K81">
+        <v>23.96219997391139</v>
+      </c>
+      <c r="L81">
+        <v>78.42545220870375</v>
+      </c>
+      <c r="M81">
+        <v>45.34067343648891</v>
+      </c>
+      <c r="N81">
+        <v>28.51745133357737</v>
+      </c>
+      <c r="O81">
+        <v>10.11018087639597</v>
+      </c>
+      <c r="P81">
+        <v>72.31184917508294</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Skn</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>2018</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>0.5747180807645038</v>
+      </c>
+      <c r="E82">
+        <v>2.303123507856164</v>
+      </c>
+      <c r="F82">
+        <v>2.268371158470417</v>
+      </c>
+      <c r="G82">
+        <v>2.073586272931837</v>
+      </c>
+      <c r="H82">
+        <v>3.220037429055359</v>
+      </c>
+      <c r="I82">
+        <v>6.012355156881818</v>
+      </c>
+      <c r="J82">
+        <v>5.551434465823735</v>
+      </c>
+      <c r="K82">
+        <v>-0.4110268459657945</v>
+      </c>
+      <c r="L82">
+        <v>2.637263802319302</v>
+      </c>
+      <c r="M82">
+        <v>1.577512622020866</v>
+      </c>
+      <c r="N82">
+        <v>1.816266055743625</v>
+      </c>
+      <c r="O82">
+        <v>0.5746768200289826</v>
+      </c>
+      <c r="P82">
+        <v>2.414215134611602</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Krt</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>2018</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D83">
         <v>-0.7476771883121986</v>
       </c>
-      <c r="E73">
+      <c r="E83">
         <v>13.75619256247287</v>
       </c>
-      <c r="F73">
+      <c r="F83">
         <v>5.316812851446156</v>
       </c>
-      <c r="G73">
+      <c r="G83">
         <v>11.07105853349373</v>
       </c>
-      <c r="H73">
+      <c r="H83">
         <v>26.18800621329076</v>
       </c>
-      <c r="I73">
+      <c r="I83">
         <v>73.8893121292045</v>
       </c>
-      <c r="J73">
+      <c r="J83">
         <v>113.2826056515844</v>
       </c>
-      <c r="K73">
+      <c r="K83">
         <v>-0.1481112551506634</v>
       </c>
-      <c r="L73">
+      <c r="L83">
         <v>9.41948010535106</v>
       </c>
-      <c r="M73">
+      <c r="M83">
         <v>5.994620789774671</v>
       </c>
-      <c r="N73">
+      <c r="N83">
         <v>8.348635796355531</v>
       </c>
-      <c r="O73">
+      <c r="O83">
         <v>0.3883259419337222</v>
       </c>
-      <c r="P73">
+      <c r="P83">
         <v>12.02880436417196</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>2018</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>5.499225525056871E-18</v>
+      </c>
+      <c r="E84">
+        <v>6.066123811564746E-12</v>
+      </c>
+      <c r="F84">
+        <v>9.259018813329305E-96</v>
+      </c>
+      <c r="G84">
+        <v>8.125262568346537E-14</v>
+      </c>
+      <c r="H84">
+        <v>3.237152433376887E-21</v>
+      </c>
+      <c r="I84">
+        <v>4.287337639094643E-37</v>
+      </c>
+      <c r="J84">
+        <v>8.393163806367333E-17</v>
+      </c>
+      <c r="K84">
+        <v>0.0007632042179251747</v>
+      </c>
+      <c r="L84">
+        <v>4.899234550066798E-46</v>
+      </c>
+      <c r="M84">
+        <v>5.738063385144393E-08</v>
+      </c>
+      <c r="N84">
+        <v>3.280053821858778E-14</v>
+      </c>
+      <c r="O84">
+        <v>0.04484533000821043</v>
+      </c>
+      <c r="P84">
+        <v>6.382494946561446E-40</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>log_norm</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>2018</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>POT</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>6.974537488931162E-14</v>
+      </c>
+      <c r="E85">
+        <v>0.7168834543202092</v>
+      </c>
+      <c r="F85">
+        <v>2.784189962211044E-20</v>
+      </c>
+      <c r="G85">
+        <v>0.1402247141152468</v>
+      </c>
+      <c r="H85">
+        <v>0.0001031252393508702</v>
+      </c>
+      <c r="I85">
+        <v>1.315037262157936E-07</v>
+      </c>
+      <c r="J85">
+        <v>0.0004636697352625229</v>
+      </c>
+      <c r="K85">
+        <v>1.348360519719634E-12</v>
+      </c>
+      <c r="L85">
+        <v>2.51787369963396E-15</v>
+      </c>
+      <c r="M85">
+        <v>0.01517580591826713</v>
+      </c>
+      <c r="N85">
+        <v>0.005281778025156967</v>
+      </c>
+      <c r="O85">
+        <v>0.08695487214687116</v>
+      </c>
+      <c r="P85">
+        <v>8.245919328489589E-07</v>
       </c>
     </row>
   </sheetData>

--- a/output/estat-desc.xlsx
+++ b/output/estat-desc.xlsx
@@ -375,67 +375,67 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>tch_real</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ca</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>m%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sb</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ctc</t>
+          <t>CTC</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>p_resina</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>h_al</t>
+          <t>H+Al</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>V%</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>Mg</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>mo</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ph_cacl2</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>S</t>
         </is>
       </c>
     </row>
